--- a/Excel - Project 01.xlsx
+++ b/Excel - Project 01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Data\Excel_V4\MOS Excel 2019\Project 1 MOS Excel 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Excel2019_Project4_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1BB7D5-473C-4818-BE51-BD37B248B540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428FBB03-FA80-47CB-8B37-84C680A9118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment" sheetId="23" r:id="rId1"/>
@@ -4213,6 +4213,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Instructional Hours</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12681,7 +12706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4872450-D6E6-4A55-99AF-B10306236F76}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -14188,7 +14213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B413F7-1DFB-44FA-A163-9C28FFD6427E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
